--- a/DataExport/xp_notes_template/Experiment Note Sheet - template.xlsx
+++ b/DataExport/xp_notes_template/Experiment Note Sheet - template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Dropbox (MIT)\Manips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Code\BlackRock-Pipeline\DataExport\xp_notes_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E199801D-F442-4454-8F42-15CD6A3CBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3000" windowWidth="20700" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="3000" windowWidth="20700" windowHeight="13830"/>
   </bookViews>
   <sheets>
     <sheet name="vIRt47" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve"> Notes</t>
   </si>
@@ -121,12 +120,24 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1L1R</t>
+  </si>
+  <si>
+    <t>subjectID</t>
+  </si>
+  <si>
+    <t>more notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -377,9 +388,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -410,6 +418,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,6 +459,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,63 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +528,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -795,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -803,7 +814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,124 +823,136 @@
     <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="6.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="29" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="13" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" style="14" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10" style="33" customWidth="1"/>
+    <col min="10" max="10" width="10" style="32" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="41">
+        <v>43717</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="23">
+        <v>1206423</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="38" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>43770</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -945,13 +968,13 @@
       <c r="E6" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -968,74 +991,78 @@
       <c r="E7" s="1">
         <v>5.2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="31"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4">
+        <v>43784</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="31"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>43784</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1049,8 +1076,8 @@
       <c r="E12" s="1">
         <v>4.5</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>31</v>
+      <c r="F12" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
@@ -1059,12 +1086,12 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
@@ -1076,54 +1103,54 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="1"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="31"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,11 +1158,11 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="31"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1143,11 +1170,11 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="31"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1155,22 +1182,22 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="31"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="15"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1178,11 +1205,11 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="26"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1190,22 +1217,22 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="31"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="15"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="31"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1214,33 +1241,33 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="31"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="F27" s="26"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="15"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="31"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="15"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="31"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,22 +1275,22 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="F29" s="26"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="31"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="15"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="31"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1271,11 +1298,11 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="F31" s="26"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1283,55 +1310,55 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="31"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="F33" s="26"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="15"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="31"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="31"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="F35" s="26"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="31"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="F36" s="26"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="15"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="31"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,22 +1367,22 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="31"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="F38" s="26"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="15"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="31"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,44 +1390,44 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="F39" s="26"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="15"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="31"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="26"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="31"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="26"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="15"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="31"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1408,11 +1435,11 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="F43" s="26"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="31"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1420,11 +1447,11 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="26"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="31"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1434,15 +1461,15 @@
       <c r="G45" s="15"/>
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="31"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="26"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="31"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1450,55 +1477,55 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="26"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="31"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="F48" s="26"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="15"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="31"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="F49" s="26"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="15"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="31"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="F50" s="26"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="15"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="31"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="F51" s="26"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="15"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="31"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,11 +1533,11 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="F52" s="26"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="15"/>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="31"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1519,11 +1546,11 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="26"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="15"/>
       <c r="H53" s="16"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="31"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -1531,44 +1558,44 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="F54" s="26"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="31"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="F55" s="26"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="15"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="31"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="F56" s="26"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="15"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="31"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="F57" s="26"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="15"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="31"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,11 +1603,11 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="F58" s="26"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="31"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,33 +1615,33 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="F59" s="26"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="15"/>
       <c r="H59" s="16"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="31"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="F60" s="26"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="15"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="31"/>
+      <c r="J60" s="30"/>
       <c r="K60" s="18"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="F61" s="26"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="15"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="31"/>
+      <c r="J61" s="30"/>
       <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -1622,153 +1649,153 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="F62" s="26"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="15"/>
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="31"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="F63" s="26"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="15"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="31"/>
+      <c r="J63" s="30"/>
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="F64" s="26"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="15"/>
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="31"/>
+      <c r="J64" s="30"/>
       <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="F65" s="26"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="15"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="31"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="F66" s="26"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="15"/>
       <c r="H66" s="16"/>
       <c r="I66" s="17"/>
-      <c r="J66" s="31"/>
+      <c r="J66" s="30"/>
       <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="F67" s="26"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="15"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="31"/>
+      <c r="J67" s="30"/>
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="F68" s="26"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="15"/>
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
-      <c r="J68" s="31"/>
+      <c r="J68" s="30"/>
       <c r="K68" s="18"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="F69" s="26"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="15"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="31"/>
+      <c r="J69" s="30"/>
       <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="F70" s="26"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="15"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="31"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="F71" s="26"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="15"/>
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="31"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="F72" s="26"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="15"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
-      <c r="J72" s="31"/>
+      <c r="J72" s="30"/>
       <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="F73" s="26"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="15"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="31"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="18"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="F74" s="26"/>
+      <c r="F74" s="25"/>
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
-      <c r="J74" s="32"/>
+      <c r="J74" s="31"/>
       <c r="K74" s="16"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="F75" s="26"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="15"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
-      <c r="J75" s="31"/>
+      <c r="J75" s="30"/>
       <c r="K75" s="18"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -1776,22 +1803,22 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="F76" s="26"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="15"/>
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
-      <c r="J76" s="31"/>
+      <c r="J76" s="30"/>
       <c r="K76" s="18"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="F77" s="28"/>
+      <c r="F77" s="27"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="31"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="18"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,197 +1826,197 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="F78" s="28"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
-      <c r="J78" s="31"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="F79" s="28"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="31"/>
+      <c r="J79" s="30"/>
       <c r="K79" s="18"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="F80" s="29"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="29"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="29"/>
+      <c r="F82" s="28"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="29"/>
+      <c r="F83" s="28"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="29"/>
+      <c r="F84" s="28"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="29"/>
+      <c r="F85" s="28"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="29"/>
+      <c r="F86" s="28"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="29"/>
+      <c r="F87" s="28"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="29"/>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="29"/>
+      <c r="F89" s="28"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="29"/>
+      <c r="F90" s="28"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="29"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="29"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="29"/>
+      <c r="F93" s="28"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="29"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="29"/>
+      <c r="F95" s="28"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="29"/>
+      <c r="F96" s="28"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="29"/>
+      <c r="F97" s="28"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="29"/>
+      <c r="F98" s="28"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="29"/>
+      <c r="F99" s="28"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="29"/>
+      <c r="F100" s="28"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="29"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="29"/>
+      <c r="F102" s="28"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="29"/>
+      <c r="F103" s="28"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F104" s="29"/>
+      <c r="F104" s="28"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F105" s="29"/>
+      <c r="F105" s="28"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F106" s="29"/>
+      <c r="F106" s="28"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F107" s="29"/>
+      <c r="F107" s="28"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F108" s="29"/>
+      <c r="F108" s="28"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F109" s="29"/>
+      <c r="F109" s="28"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F110" s="29"/>
+      <c r="F110" s="28"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F111" s="29"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F112" s="29"/>
+      <c r="F112" s="28"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" s="29"/>
+      <c r="F113" s="28"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F114" s="29"/>
+      <c r="F114" s="28"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="29"/>
+      <c r="F115" s="28"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="29"/>
+      <c r="F116" s="28"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="29"/>
+      <c r="F117" s="28"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="29"/>
+      <c r="F118" s="28"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F119" s="29"/>
+      <c r="F119" s="28"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F120" s="29"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="29"/>
+      <c r="F121" s="28"/>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F122" s="29"/>
+      <c r="F122" s="28"/>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F123" s="29"/>
+      <c r="F123" s="28"/>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F124" s="29"/>
+      <c r="F124" s="28"/>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="29"/>
+      <c r="F125" s="28"/>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="29"/>
+      <c r="F126" s="28"/>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="29"/>
+      <c r="F127" s="28"/>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="29"/>
+      <c r="F128" s="28"/>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F129" s="29"/>
+      <c r="F129" s="28"/>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F130" s="29"/>
+      <c r="F130" s="28"/>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="29"/>
+      <c r="F131" s="28"/>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="29"/>
+      <c r="F132" s="28"/>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="29"/>
+      <c r="F133" s="28"/>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134" s="29"/>
+      <c r="F134" s="28"/>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F135" s="29"/>
+      <c r="F135" s="28"/>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136" s="29"/>
+      <c r="F136" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
